--- a/bin/测试文件/测试Excel.xlsx
+++ b/bin/测试文件/测试Excel.xlsx
@@ -4,72 +4,150 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15450" windowHeight="5040"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+  <si>
+    <t>文件名(前缀为此文件集合）</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Skill_1</t>
+  </si>
+  <si>
+    <t>Skill_2</t>
+  </si>
+  <si>
+    <t>Skill_3</t>
+  </si>
+  <si>
+    <t>Skill_4</t>
+  </si>
+  <si>
+    <t>CharacterSkill_Wizard1</t>
+  </si>
+  <si>
+    <t>魔法师</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>魔</t>
+  </si>
+  <si>
+    <t>隐</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>CharacterSkill_Soldier</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>一刀</t>
+  </si>
+  <si>
+    <t>斩</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
   <si>
     <t>文件名</t>
   </si>
   <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>技能1</t>
-  </si>
-  <si>
-    <t>技能2</t>
-  </si>
-  <si>
-    <t>技能3</t>
-  </si>
-  <si>
-    <t>技能4</t>
-  </si>
-  <si>
-    <t>Skill_Wizard1</t>
-  </si>
-  <si>
-    <t>魔法师</t>
-  </si>
-  <si>
-    <t>球</t>
-  </si>
-  <si>
-    <t>魔</t>
-  </si>
-  <si>
-    <t>隐</t>
-  </si>
-  <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>Skill_Soldier</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>一刀</t>
-  </si>
-  <si>
-    <t>斩</t>
-  </si>
-  <si>
-    <t>刀</t>
-  </si>
-  <si>
-    <t>无</t>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>SkillKind</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>Buff_1（集合）</t>
+  </si>
+  <si>
+    <t>Buff_2</t>
+  </si>
+  <si>
+    <t>Skill_polo</t>
+  </si>
+  <si>
+    <t>真实伤害</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>Skill_zhan</t>
+  </si>
+  <si>
+    <t>持续伤害</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>勇气</t>
+  </si>
+  <si>
+    <t>Skill_5</t>
+  </si>
+  <si>
+    <t>Skill_无</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>可叠加</t>
+  </si>
+  <si>
+    <t>可覆盖</t>
+  </si>
+  <si>
+    <t>Buff_poison</t>
+  </si>
+  <si>
+    <t>减益</t>
+  </si>
+  <si>
+    <t>Buff_灼烧</t>
+  </si>
+  <si>
+    <t>Buff_3</t>
+  </si>
+  <si>
+    <t>增益</t>
   </si>
 </sst>
 </file>
@@ -77,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,6 +168,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -97,88 +189,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,6 +256,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -210,6 +282,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -218,23 +298,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -485,6 +554,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -496,6 +574,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,21 +618,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,13 +1099,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -1103,14 +1181,213 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
@@ -1120,16 +1397,120 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bin/测试文件/测试Excel.xlsx
+++ b/bin/测试文件/测试Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="17130" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>Skill_5</t>
   </si>
   <si>
-    <t>Skill_无</t>
+    <t>Skill_六</t>
   </si>
   <si>
     <t>类型</t>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,6 +175,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -188,61 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,9 +218,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,6 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -288,31 +296,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,67 +327,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,103 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,11 +551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,17 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/bin/测试文件/测试Excel.xlsx
+++ b/bin/测试文件/测试Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>文件名(前缀为此文件集合）</t>
   </si>
@@ -117,10 +117,22 @@
     <t>勇气</t>
   </si>
   <si>
-    <t>Skill_5</t>
-  </si>
-  <si>
-    <t>Skill_六</t>
+    <t>Skill_dao</t>
+  </si>
+  <si>
+    <t>Skill_yidao</t>
+  </si>
+  <si>
+    <t>Skill_mo</t>
+  </si>
+  <si>
+    <t>Skill_隐</t>
+  </si>
+  <si>
+    <t>Skill_天</t>
+  </si>
+  <si>
+    <t>Skill_wu</t>
   </si>
   <si>
     <t>类型</t>
@@ -144,7 +156,10 @@
     <t>Buff_灼烧</t>
   </si>
   <si>
-    <t>Buff_3</t>
+    <t>Buff_流血</t>
+  </si>
+  <si>
+    <t>Buff_yognqi</t>
   </si>
   <si>
     <t>增益</t>
@@ -156,8 +171,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -168,6 +183,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -175,6 +197,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -182,21 +218,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,6 +243,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -218,48 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,13 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -290,29 +312,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,25 +342,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,157 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,17 +551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +577,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +614,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +633,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1114,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1184,7 +1199,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1278,7 +1293,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1298,7 +1313,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1318,7 +1333,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1335,7 +1350,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1355,7 +1370,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1372,7 +1387,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1400,7 +1415,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1417,27 +1432,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1451,13 +1466,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1471,13 +1486,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1491,13 +1506,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>10</v>
